--- a/teaching/traditional_assets/database/data/portugal/portugal_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/portugal/portugal_investments_asset_management.xlsx
@@ -591,97 +591,97 @@
         </is>
       </c>
       <c r="G2">
-        <v>2.080924855491329</v>
+        <v>1.181619256017505</v>
       </c>
       <c r="H2">
-        <v>2.080924855491329</v>
+        <v>1.181619256017505</v>
       </c>
       <c r="I2">
-        <v>1.984585741811175</v>
+        <v>1.477024070021882</v>
       </c>
       <c r="J2">
-        <v>1.984585741811175</v>
+        <v>1.282454553105538</v>
       </c>
       <c r="K2">
-        <v>0.956</v>
+        <v>0.901</v>
       </c>
       <c r="L2">
-        <v>1.842003853564547</v>
+        <v>0.9857768052516411</v>
       </c>
       <c r="M2">
-        <v>0.267</v>
+        <v>0.866</v>
       </c>
       <c r="N2">
-        <v>0.01412698412698413</v>
+        <v>0.03972477064220183</v>
       </c>
       <c r="O2">
-        <v>0.2792887029288703</v>
+        <v>0.9611542730299667</v>
       </c>
       <c r="P2">
-        <v>0.267</v>
+        <v>0.847</v>
       </c>
       <c r="Q2">
-        <v>0.01412698412698413</v>
+        <v>0.03885321100917431</v>
       </c>
       <c r="R2">
-        <v>0.2792887029288703</v>
+        <v>0.9400665926748057</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.01900000000000002</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.02193995381062358</v>
       </c>
       <c r="U2">
-        <v>2.8</v>
+        <v>1.78</v>
       </c>
       <c r="V2">
-        <v>0.1481481481481481</v>
+        <v>0.081651376146789</v>
       </c>
       <c r="W2">
-        <v>0.06877697841726618</v>
+        <v>0.04818181818181819</v>
       </c>
       <c r="X2">
-        <v>0.05981041707816115</v>
+        <v>0.04707356430308565</v>
       </c>
       <c r="Y2">
-        <v>0.008966561339105034</v>
+        <v>0.001108253878732535</v>
       </c>
       <c r="Z2">
-        <v>0.03707142857142857</v>
+        <v>0.0658691265494379</v>
       </c>
       <c r="AA2">
-        <v>0.07357142857142857</v>
+        <v>0.0844741612524115</v>
       </c>
       <c r="AB2">
-        <v>0.05975173853276401</v>
+        <v>0.04704423515729531</v>
       </c>
       <c r="AC2">
-        <v>0.01381969003866455</v>
+        <v>0.03742992609511619</v>
       </c>
       <c r="AD2">
-        <v>0.073</v>
+        <v>0.08</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.073</v>
+        <v>0.08</v>
       </c>
       <c r="AG2">
-        <v>-2.727</v>
+        <v>-1.7</v>
       </c>
       <c r="AH2">
-        <v>0.003847572866705318</v>
+        <v>0.003656307129798904</v>
       </c>
       <c r="AI2">
-        <v>0.003867959518889418</v>
+        <v>0.004282655246252677</v>
       </c>
       <c r="AJ2">
-        <v>-0.1686143572621035</v>
+        <v>-0.08457711442786069</v>
       </c>
       <c r="AK2">
-        <v>-0.1696634106887326</v>
+        <v>-0.1005917159763313</v>
       </c>
       <c r="AL2">
         <v>0.007</v>
@@ -690,16 +690,16 @@
         <v>0.005</v>
       </c>
       <c r="AN2">
-        <v>0.06759259259259258</v>
+        <v>0.05714285714285715</v>
       </c>
       <c r="AO2">
-        <v>147.1428571428571</v>
+        <v>192.8571428571429</v>
       </c>
       <c r="AP2">
-        <v>-2.525</v>
+        <v>-1.214285714285714</v>
       </c>
       <c r="AQ2">
-        <v>206</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3">
@@ -719,97 +719,97 @@
         </is>
       </c>
       <c r="G3">
-        <v>2.080924855491329</v>
+        <v>1.181619256017505</v>
       </c>
       <c r="H3">
-        <v>2.080924855491329</v>
+        <v>1.181619256017505</v>
       </c>
       <c r="I3">
-        <v>1.984585741811175</v>
+        <v>1.477024070021882</v>
       </c>
       <c r="J3">
-        <v>1.984585741811175</v>
+        <v>1.282454553105538</v>
       </c>
       <c r="K3">
-        <v>0.956</v>
+        <v>0.901</v>
       </c>
       <c r="L3">
-        <v>1.842003853564547</v>
+        <v>0.9857768052516411</v>
       </c>
       <c r="M3">
-        <v>0.267</v>
+        <v>0.866</v>
       </c>
       <c r="N3">
-        <v>0.01412698412698413</v>
+        <v>0.03972477064220183</v>
       </c>
       <c r="O3">
-        <v>0.2792887029288703</v>
+        <v>0.9611542730299667</v>
       </c>
       <c r="P3">
-        <v>0.267</v>
+        <v>0.847</v>
       </c>
       <c r="Q3">
-        <v>0.01412698412698413</v>
+        <v>0.03885321100917431</v>
       </c>
       <c r="R3">
-        <v>0.2792887029288703</v>
+        <v>0.9400665926748057</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.01900000000000002</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.02193995381062358</v>
       </c>
       <c r="U3">
-        <v>2.8</v>
+        <v>1.78</v>
       </c>
       <c r="V3">
-        <v>0.1481481481481481</v>
+        <v>0.081651376146789</v>
       </c>
       <c r="W3">
-        <v>0.06877697841726618</v>
+        <v>0.04818181818181819</v>
       </c>
       <c r="X3">
-        <v>0.05981041707816115</v>
+        <v>0.04707356430308565</v>
       </c>
       <c r="Y3">
-        <v>0.008966561339105034</v>
+        <v>0.001108253878732535</v>
       </c>
       <c r="Z3">
-        <v>0.03707142857142857</v>
+        <v>0.0658691265494379</v>
       </c>
       <c r="AA3">
-        <v>0.07357142857142857</v>
+        <v>0.0844741612524115</v>
       </c>
       <c r="AB3">
-        <v>0.05975173853276401</v>
+        <v>0.04704423515729531</v>
       </c>
       <c r="AC3">
-        <v>0.01381969003866455</v>
+        <v>0.03742992609511619</v>
       </c>
       <c r="AD3">
-        <v>0.073</v>
+        <v>0.08</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.073</v>
+        <v>0.08</v>
       </c>
       <c r="AG3">
-        <v>-2.727</v>
+        <v>-1.7</v>
       </c>
       <c r="AH3">
-        <v>0.003847572866705318</v>
+        <v>0.003656307129798904</v>
       </c>
       <c r="AI3">
-        <v>0.003867959518889418</v>
+        <v>0.004282655246252677</v>
       </c>
       <c r="AJ3">
-        <v>-0.1686143572621035</v>
+        <v>-0.08457711442786069</v>
       </c>
       <c r="AK3">
-        <v>-0.1696634106887326</v>
+        <v>-0.1005917159763313</v>
       </c>
       <c r="AL3">
         <v>0.007</v>
@@ -818,16 +818,16 @@
         <v>0.005</v>
       </c>
       <c r="AN3">
-        <v>0.06759259259259258</v>
+        <v>0.05714285714285715</v>
       </c>
       <c r="AO3">
-        <v>147.1428571428571</v>
+        <v>192.8571428571429</v>
       </c>
       <c r="AP3">
-        <v>-2.525</v>
+        <v>-1.214285714285714</v>
       </c>
       <c r="AQ3">
-        <v>206</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
